--- a/testcase/excel/publicManage.xlsx
+++ b/testcase/excel/publicManage.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="47">
   <si>
     <t>编号</t>
   </si>
@@ -1236,7 +1236,7 @@
   <dimension ref="A1:L7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="6"/>
@@ -1438,9 +1438,7 @@
       <c r="B6" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="C6" s="4" t="s">
-        <v>34</v>
-      </c>
+      <c r="C6" s="4"/>
       <c r="D6" s="4" t="s">
         <v>14</v>
       </c>
@@ -1470,9 +1468,7 @@
       <c r="B7" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="C7" s="4" t="s">
-        <v>34</v>
-      </c>
+      <c r="C7" s="4"/>
       <c r="D7" s="4" t="s">
         <v>14</v>
       </c>
